--- a/StructureDefinition-ext-R5-SubstanceProtein.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceProtein.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubstanceProtein.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceProtein.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="241">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.sequenceType</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Extension.extension:numberOfSubunits.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.numberOfSubunits</t>
+  </si>
+  <si>
     <t>Extension.extension:numberOfSubunits.value[x]</t>
   </si>
   <si>
@@ -463,6 +469,9 @@
     <t>Extension.extension:disulfideLinkage.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.disulfideLinkage</t>
+  </si>
+  <si>
     <t>Extension.extension:disulfideLinkage.value[x]</t>
   </si>
   <si>
@@ -517,6 +526,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.subunit</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:subunit.value[x]</t>
   </si>
   <si>
@@ -547,6 +559,9 @@
     <t>Extension.extension:subunit.extension:sequence.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.sequence</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:sequence.value[x]</t>
   </si>
   <si>
@@ -574,6 +589,9 @@
     <t>Extension.extension:subunit.extension:length.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.length</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:length.value[x]</t>
   </si>
   <si>
@@ -593,6 +611,9 @@
   </si>
   <si>
     <t>Extension.extension:subunit.extension:sequenceAttachment.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.sequenceAttachment</t>
   </si>
   <si>
     <t>Extension.extension:subunit.extension:sequenceAttachment.value[x]</t>
@@ -626,6 +647,9 @@
     <t>Extension.extension:subunit.extension:nTerminalModificationId.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.nTerminalModificationId</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:nTerminalModificationId.value[x]</t>
   </si>
   <si>
@@ -657,6 +681,9 @@
     <t>Extension.extension:subunit.extension:nTerminalModification.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.nTerminalModification</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:nTerminalModification.value[x]</t>
   </si>
   <si>
@@ -678,6 +705,9 @@
     <t>Extension.extension:subunit.extension:cTerminalModificationId.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.cTerminalModificationId</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:cTerminalModificationId.value[x]</t>
   </si>
   <si>
@@ -703,6 +733,9 @@
   </si>
   <si>
     <t>Extension.extension:subunit.extension:cTerminalModification.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceProtein.subunit.cTerminalModification</t>
   </si>
   <si>
     <t>Extension.extension:subunit.extension:cTerminalModification.value[x]</t>
@@ -1870,7 +1903,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1912,7 +1945,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1927,15 +1960,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1958,7 +1991,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2015,7 +2048,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2027,21 +2060,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2066,14 +2099,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2142,7 +2175,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2245,7 +2278,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2350,7 +2383,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2393,7 +2426,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2435,7 +2468,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2450,15 +2483,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2481,13 +2514,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2538,7 +2571,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2550,21 +2583,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2589,14 +2622,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2665,7 +2698,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2768,7 +2801,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2873,7 +2906,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2916,7 +2949,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2958,7 +2991,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2973,15 +3006,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3007,10 +3040,10 @@
         <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3061,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3073,21 +3106,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3112,14 +3145,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3188,7 +3221,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3291,7 +3324,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3394,13 +3427,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3425,14 +3458,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3501,10 +3534,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3604,10 +3637,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3709,10 +3742,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3752,7 +3785,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3794,7 +3827,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3809,15 +3842,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3840,13 +3873,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3897,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3909,21 +3942,21 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3948,14 +3981,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4024,10 +4057,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4127,10 +4160,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4232,10 +4265,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4275,7 +4308,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4317,7 +4350,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4332,15 +4365,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4366,10 +4399,10 @@
         <v>87</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4420,7 +4453,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4432,21 +4465,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4471,14 +4504,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4547,10 +4580,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4650,10 +4683,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4755,10 +4788,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4798,7 +4831,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4840,7 +4873,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -4855,15 +4888,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4886,13 +4919,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4943,7 +4976,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -4955,21 +4988,21 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4994,14 +5027,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5070,10 +5103,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5173,10 +5206,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5278,10 +5311,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5321,7 +5354,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5363,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -5378,15 +5411,15 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5409,13 +5442,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5466,7 +5499,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5478,21 +5511,21 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5517,14 +5550,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5593,10 +5626,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5696,10 +5729,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5801,10 +5834,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5844,7 +5877,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5886,7 +5919,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -5901,15 +5934,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5932,13 +5965,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5989,7 +6022,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6001,21 +6034,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6040,14 +6073,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6116,10 +6149,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6219,10 +6252,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6324,10 +6357,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6367,7 +6400,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6409,7 +6442,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6424,15 +6457,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6458,10 +6491,10 @@
         <v>87</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6512,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6524,21 +6557,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6563,14 +6596,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6639,10 +6672,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6742,10 +6775,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6847,10 +6880,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6890,7 +6923,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6965,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -6947,15 +6980,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6978,13 +7011,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7035,7 +7068,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7047,21 +7080,21 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7086,14 +7119,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7162,10 +7195,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7265,10 +7298,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7370,10 +7403,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7413,7 +7446,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7455,7 +7488,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -7470,15 +7503,15 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7504,10 +7537,10 @@
         <v>87</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7558,7 +7591,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -7570,15 +7603,15 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7621,7 +7654,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7663,7 +7696,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -7678,15 +7711,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7709,13 +7742,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7766,7 +7799,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -7778,18 +7811,18 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7871,7 +7904,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
@@ -7886,15 +7919,15 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7917,13 +7950,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7974,7 +8007,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -7986,10 +8019,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceProtein.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceProtein.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-SubstanceProtein.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceProtein.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
